--- a/templates/schedule_julmarknad.xlsx
+++ b/templates/schedule_julmarknad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28317"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atw10wp4\JupyterLab\Kyrkan\WebShopReport\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dokumente\Kyrkans dator\03_Marknader\Marknader 2024\Webshop\Back office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AA1E8F-E2EA-461E-96C5-37A72B78BF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{EE36D204-4271-4459-8C98-BCC74611FF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC4F65E4-90FF-4233-A96C-88583C5F4A66}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="3" r:id="rId1"/>
@@ -48,7 +48,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,15 +85,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -373,16 +372,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C4CDD5-4327-475C-B13C-F4CCF766ADC7}">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -390,345 +389,345 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" s="3">
-        <v>45262</v>
+        <v>45626</v>
       </c>
       <c r="B2" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" s="3">
-        <v>45262</v>
+        <v>45626</v>
       </c>
       <c r="B3" s="1">
         <v>0.51388888888888884</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="A4" s="3">
-        <v>45262</v>
+        <v>45626</v>
       </c>
       <c r="B4" s="1">
         <v>0.52777777777777768</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="A5" s="3">
-        <v>45262</v>
+        <v>45626</v>
       </c>
       <c r="B5" s="1">
         <v>0.54166666666666652</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2">
       <c r="A6" s="3">
-        <v>45262</v>
+        <v>45626</v>
       </c>
       <c r="B6" s="1">
         <v>0.55555555555555536</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2">
       <c r="A7" s="3">
-        <v>45262</v>
+        <v>45626</v>
       </c>
       <c r="B7" s="1">
         <v>0.5694444444444442</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2">
       <c r="A8" s="3">
-        <v>45262</v>
+        <v>45626</v>
       </c>
       <c r="B8" s="1">
         <v>0.58333333333333304</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2">
       <c r="A9" s="3">
-        <v>45262</v>
+        <v>45626</v>
       </c>
       <c r="B9" s="1">
         <v>0.59722222222222188</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2">
       <c r="A10" s="3">
-        <v>45262</v>
+        <v>45626</v>
       </c>
       <c r="B10" s="1">
         <v>0.61111111111111072</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2">
       <c r="A11" s="3">
-        <v>45262</v>
+        <v>45626</v>
       </c>
       <c r="B11" s="1">
         <v>0.62499999999999956</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2">
       <c r="A12" s="3">
-        <v>45262</v>
+        <v>45626</v>
       </c>
       <c r="B12" s="1">
         <v>0.6388888888888884</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2">
       <c r="A13" s="3">
-        <v>45262</v>
+        <v>45626</v>
       </c>
       <c r="B13" s="1">
         <v>0.65277777777777724</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2">
       <c r="A14" s="3">
-        <v>45262</v>
+        <v>45626</v>
       </c>
       <c r="B14" s="1">
         <v>0.66666666666666607</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2">
       <c r="A15" s="3">
-        <v>45262</v>
+        <v>45626</v>
       </c>
       <c r="B15" s="1">
         <v>0.68055555555555491</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2">
       <c r="A16" s="3">
-        <v>45262</v>
+        <v>45626</v>
       </c>
       <c r="B16" s="1">
         <v>0.69444444444444375</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2">
       <c r="A17" s="3">
-        <v>45262</v>
+        <v>45626</v>
       </c>
       <c r="B17" s="1">
         <v>0.70833333333333259</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2">
       <c r="A18" s="3">
-        <v>45262</v>
+        <v>45626</v>
       </c>
       <c r="B18" s="1">
         <v>0.72222222222222143</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2">
       <c r="A19" s="3">
-        <v>45262</v>
+        <v>45626</v>
       </c>
       <c r="B19" s="1">
         <v>0.73611111111111027</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2">
       <c r="A20" s="3">
-        <v>45263</v>
-      </c>
-      <c r="B20" s="4">
+        <v>45627</v>
+      </c>
+      <c r="B20" s="1">
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2">
       <c r="A21" s="3">
-        <v>45263</v>
+        <v>45627</v>
       </c>
       <c r="B21" s="1">
         <v>0.55555555555555547</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2">
       <c r="A22" s="3">
-        <v>45263</v>
+        <v>45627</v>
       </c>
       <c r="B22" s="1">
         <v>0.56944444444444431</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2">
       <c r="A23" s="3">
-        <v>45263</v>
+        <v>45627</v>
       </c>
       <c r="B23" s="1">
         <v>0.58333333333333315</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2">
       <c r="A24" s="3">
-        <v>45263</v>
+        <v>45627</v>
       </c>
       <c r="B24" s="1">
         <v>0.59722222222222199</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2">
       <c r="A25" s="3">
-        <v>45263</v>
+        <v>45627</v>
       </c>
       <c r="B25" s="1">
         <v>0.61111111111111083</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2">
       <c r="A26" s="3">
-        <v>45263</v>
+        <v>45627</v>
       </c>
       <c r="B26" s="1">
         <v>0.62499999999999967</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2">
       <c r="A27" s="3">
-        <v>45263</v>
+        <v>45627</v>
       </c>
       <c r="B27" s="1">
         <v>0.63888888888888851</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2">
       <c r="A28" s="3">
-        <v>45263</v>
+        <v>45627</v>
       </c>
       <c r="B28" s="1">
         <v>0.65277777777777735</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2">
       <c r="A29" s="3">
-        <v>45263</v>
+        <v>45627</v>
       </c>
       <c r="B29" s="1">
         <v>0.66666666666666619</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2">
       <c r="A30" s="3">
-        <v>45263</v>
+        <v>45627</v>
       </c>
       <c r="B30" s="1">
         <v>0.68055555555555503</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2">
       <c r="A31" s="3">
-        <v>45263</v>
+        <v>45627</v>
       </c>
       <c r="B31" s="1">
         <v>0.69444444444444386</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2">
       <c r="A32" s="3">
-        <v>45263</v>
+        <v>45627</v>
       </c>
       <c r="B32" s="1">
         <v>0.7083333333333327</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2">
       <c r="A33" s="3">
-        <v>45263</v>
+        <v>45627</v>
       </c>
       <c r="B33" s="1">
         <v>0.72222222222222154</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2">
       <c r="A34" s="3">
-        <v>45263</v>
+        <v>45627</v>
       </c>
       <c r="B34" s="1">
         <v>0.73611111111111038</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2">
       <c r="A35" s="3">
-        <v>45264</v>
+        <v>45628</v>
       </c>
       <c r="B35" s="1">
         <v>0.625</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2">
       <c r="A36" s="3">
-        <v>45264</v>
+        <v>45628</v>
       </c>
       <c r="B36" s="1">
         <v>0.63888888888888884</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2">
       <c r="A37" s="3">
-        <v>45264</v>
+        <v>45628</v>
       </c>
       <c r="B37" s="1">
         <v>0.65277777777777768</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2">
       <c r="A38" s="3">
-        <v>45264</v>
+        <v>45628</v>
       </c>
       <c r="B38" s="1">
         <v>0.66666666666666652</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2">
       <c r="A39" s="3">
-        <v>45264</v>
+        <v>45628</v>
       </c>
       <c r="B39" s="1">
         <v>0.68055555555555536</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2">
       <c r="A40" s="3">
-        <v>45264</v>
+        <v>45628</v>
       </c>
       <c r="B40" s="1">
         <v>0.6944444444444442</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2">
       <c r="A41" s="3">
-        <v>45264</v>
+        <v>45628</v>
       </c>
       <c r="B41" s="1">
         <v>0.70833333333333304</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2">
       <c r="A42" s="3">
-        <v>45264</v>
+        <v>45628</v>
       </c>
       <c r="B42" s="1">
         <v>0.72222222222222188</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2">
       <c r="A43" s="3">
-        <v>45264</v>
+        <v>45628</v>
       </c>
       <c r="B43" s="1">
         <v>0.73611111111111072</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2">
       <c r="A44" s="3">
-        <v>45291</v>
+        <v>45657</v>
       </c>
       <c r="B44" s="1">
         <v>0.875</v>
@@ -738,4 +737,10 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{f0785fb4-7cd3-40c0-8122-f25147720244}" enabled="1" method="Standard" siteId="{3619ea90-fa6e-40bf-aa11-2d4a18ad7689}" removed="0"/>
+</clbl:labelList>
 </file>